--- a/Gannt Chart.xlsx
+++ b/Gannt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\Programs\attemptAgainAgain\NotificationCentral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76792BE9-12D0-47CA-8F94-663CDE559B34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9F67C3-FE5F-4A52-9D2D-A8F91DE5FDE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{EFE9CE51-03A8-4819-9211-BC7E5592EAAF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Notifiction Central</t>
   </si>
@@ -53,9 +53,6 @@
     <t>CSV file</t>
   </si>
   <si>
-    <t>Java code for window</t>
-  </si>
-  <si>
     <t>Design of window</t>
   </si>
   <si>
@@ -150,6 +147,15 @@
   </si>
   <si>
     <t>Some meaningful language about time</t>
+  </si>
+  <si>
+    <t>code for window</t>
+  </si>
+  <si>
+    <t>How do we do this?</t>
+  </si>
+  <si>
+    <t>do we need GUI software</t>
   </si>
 </sst>
 </file>
@@ -336,100 +342,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -454,6 +370,97 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -776,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7712DF-ABF5-41E9-A657-1597091793E7}">
   <dimension ref="C2:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6:N8"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -792,220 +799,228 @@
     </row>
     <row r="3" spans="3:22" x14ac:dyDescent="0.35">
       <c r="N3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="C4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="N4" t="s">
         <v>17</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="C4" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="29" t="s">
+    <row r="5" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="C5" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
+      <c r="N5" t="s">
+        <v>18</v>
+      </c>
+      <c r="V5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="F6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+      <c r="N6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="F7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13"/>
+      <c r="N7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="F8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="N8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="3:22" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="V9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="F10" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="41"/>
+      <c r="H10" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="V10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="F11" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="41"/>
+      <c r="H11" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
+      <c r="V11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="H12" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="26"/>
+    </row>
+    <row r="13" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="J13" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="33"/>
+    </row>
+    <row r="14" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="J14" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="N4" t="s">
-        <v>18</v>
-      </c>
-      <c r="V4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="C5" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="35"/>
-      <c r="N5" t="s">
-        <v>19</v>
-      </c>
-      <c r="V5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="F6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="10"/>
-      <c r="N6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="F7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="10"/>
-      <c r="N7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="F8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="N8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="3:22" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="40"/>
-      <c r="V9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="H10" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="V10" t="s">
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="30"/>
+    </row>
+    <row r="15" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="J15" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="32"/>
+      <c r="L15" s="30"/>
+    </row>
+    <row r="16" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="H16" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="H17" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="H19" s="19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="H11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="22"/>
-      <c r="V11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="H12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="J13" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="28"/>
-    </row>
-    <row r="14" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="J14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="25"/>
-    </row>
-    <row r="15" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="J15" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="27"/>
-      <c r="L15" s="25"/>
-    </row>
-    <row r="16" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="H16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="H17" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="22"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C18" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="H19" s="16" t="s">
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="I20" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="I21" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="I21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="F18:I18"/>
     <mergeCell ref="C4:D4"/>
@@ -1022,11 +1037,11 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="C5:E5"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H7:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Gannt Chart.xlsx
+++ b/Gannt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\Programs\attemptAgainAgain\NotificationCentral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9F67C3-FE5F-4A52-9D2D-A8F91DE5FDE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59FE637-A8CD-46E1-A586-94C9600CFCF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{EFE9CE51-03A8-4819-9211-BC7E5592EAAF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Notifiction Central</t>
   </si>
@@ -156,6 +156,21 @@
   </si>
   <si>
     <t>do we need GUI software</t>
+  </si>
+  <si>
+    <t>Type of menu</t>
+  </si>
+  <si>
+    <t>Dropdown (if option is already used, remove from menu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rather than exanding,  could open new window for  with all notifications in their own tiles (~120 chars) </t>
+  </si>
+  <si>
+    <t>be able to scroll throught hem all. Cronological order</t>
+  </si>
+  <si>
+    <t>Aslo have a counter showing so that we can know stuff is coming in</t>
   </si>
 </sst>
 </file>
@@ -171,7 +186,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,8 +247,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -338,14 +365,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -370,97 +496,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -781,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7712DF-ABF5-41E9-A657-1597091793E7}">
-  <dimension ref="C2:V21"/>
+  <dimension ref="C2:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -806,15 +852,15 @@
       </c>
     </row>
     <row r="4" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="34" t="s">
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="18"/>
+      <c r="G4" s="15"/>
       <c r="N4" t="s">
         <v>17</v>
       </c>
@@ -823,225 +869,256 @@
       </c>
     </row>
     <row r="5" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="C5" s="35" t="s">
+      <c r="G5" s="44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="H6" s="45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="C7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="20" t="s">
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="3" t="s">
+      <c r="G7" s="18"/>
+      <c r="H7" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5"/>
-      <c r="N5" t="s">
+      <c r="I7" s="34"/>
+      <c r="J7" s="35"/>
+      <c r="N7" t="s">
         <v>18</v>
       </c>
-      <c r="V5" t="s">
+      <c r="V7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="F6" s="11" t="s">
+    <row r="8" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="F8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="11" t="s">
+      <c r="G8" s="11"/>
+      <c r="H8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="13"/>
-      <c r="N6" t="s">
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="11"/>
+      <c r="N8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="F7" s="11" t="s">
+    <row r="9" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="F9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="11" t="s">
+      <c r="G9" s="11"/>
+      <c r="H9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="13"/>
-      <c r="N7" t="s">
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="11"/>
+      <c r="N9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="F8" s="11" t="s">
+    <row r="10" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="F10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="N8" t="s">
+      <c r="G10" s="11"/>
+      <c r="N10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="3:22" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="6" t="s">
+    <row r="11" spans="3:22" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9" t="s">
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="9" t="s">
+      <c r="G11" s="40"/>
+      <c r="H11" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="V9" t="s">
+      <c r="I11" s="40"/>
+      <c r="V11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="F10" s="41" t="s">
+    <row r="12" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="F12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="22" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="V10" t="s">
+      <c r="I12" s="7"/>
+      <c r="V12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="F11" s="41" t="s">
+    <row r="13" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="F13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="27" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25"/>
-      <c r="V11" t="s">
+      <c r="I13" s="6"/>
+      <c r="J13" s="22"/>
+      <c r="V13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="H12" s="27" t="s">
+    <row r="14" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="H14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="26"/>
-    </row>
-    <row r="13" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="J13" s="31" t="s">
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="J15" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="33"/>
-    </row>
-    <row r="14" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="J14" s="28" t="s">
+      <c r="K15" s="28"/>
+    </row>
+    <row r="16" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="J16" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="30"/>
-    </row>
-    <row r="15" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="J15" s="31" t="s">
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="25"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="J17" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="32"/>
-      <c r="L15" s="30"/>
-    </row>
-    <row r="16" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="H16" s="39" t="s">
+      <c r="K17" s="27"/>
+      <c r="L17" s="25"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="H18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="H17" s="22" t="s">
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="H20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="25"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C18" s="14" t="s">
+      <c r="I20" s="21"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="22"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C21" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="14" t="s">
+      <c r="D21" s="13"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="15"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="H19" s="19" t="s">
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="H22" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="I20" s="38" t="s">
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="I23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="I21" s="38" t="s">
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="I24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="H25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="H26" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="F7:G7"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J15:K15"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Gannt Chart.xlsx
+++ b/Gannt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\Programs\attemptAgainAgain\NotificationCentral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59FE637-A8CD-46E1-A586-94C9600CFCF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF7290C-3C83-4533-8E23-9964D6BB9EF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{EFE9CE51-03A8-4819-9211-BC7E5592EAAF}"/>
   </bookViews>
